--- a/Code/Results/Cases/Case_8_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.85198529432986</v>
+        <v>20.54070152985778</v>
       </c>
       <c r="C2">
-        <v>13.12330917352031</v>
+        <v>13.53933827585966</v>
       </c>
       <c r="D2">
-        <v>4.433491484177287</v>
+        <v>4.450596647335427</v>
       </c>
       <c r="E2">
-        <v>8.598592609897599</v>
+        <v>8.562205673622064</v>
       </c>
       <c r="F2">
-        <v>20.35077508996721</v>
+        <v>19.64770314724495</v>
       </c>
       <c r="G2">
-        <v>2.081479966043827</v>
+        <v>1.299694152032788</v>
       </c>
       <c r="H2">
-        <v>1.670992698902811</v>
+        <v>1.758382168261114</v>
       </c>
       <c r="I2">
-        <v>2.636134025245294</v>
+        <v>2.736647547163793</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.86505494902991</v>
+        <v>14.21720752962131</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.38121427541939</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.721245804725857</v>
       </c>
       <c r="N2">
-        <v>8.00899217740346</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.2997194054672</v>
+        <v>8.097200279211176</v>
       </c>
       <c r="Q2">
-        <v>16.23202593077869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.27859703262692</v>
+      </c>
+      <c r="S2">
+        <v>15.61298908028494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49163147266217</v>
+        <v>19.20985213335087</v>
       </c>
       <c r="C3">
-        <v>12.50033322431141</v>
+        <v>12.86669939666576</v>
       </c>
       <c r="D3">
-        <v>4.300589173263783</v>
+        <v>4.285807236865047</v>
       </c>
       <c r="E3">
-        <v>8.439218349083086</v>
+        <v>8.450434371685182</v>
       </c>
       <c r="F3">
-        <v>19.6970540160478</v>
+        <v>19.01847955547015</v>
       </c>
       <c r="G3">
-        <v>2.085633987996406</v>
+        <v>1.838907064440511</v>
       </c>
       <c r="H3">
-        <v>1.651100563573565</v>
+        <v>1.5847094813185</v>
       </c>
       <c r="I3">
-        <v>2.478382951578869</v>
+        <v>2.606502132942147</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.83552763636691</v>
+        <v>14.2061556418857</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.48825962876877</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.596213905834176</v>
       </c>
       <c r="N3">
-        <v>7.697626163848197</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.3774646637054</v>
+        <v>7.791318441553917</v>
       </c>
       <c r="Q3">
-        <v>15.91717567483647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.32115543011153</v>
+      </c>
+      <c r="S3">
+        <v>15.30773223008829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.61032509395005</v>
+        <v>18.33958506800875</v>
       </c>
       <c r="C4">
-        <v>12.10280780685501</v>
+        <v>12.4380306051057</v>
       </c>
       <c r="D4">
-        <v>4.216405740208941</v>
+        <v>4.181068839216042</v>
       </c>
       <c r="E4">
-        <v>8.338084579786791</v>
+        <v>8.379516341577014</v>
       </c>
       <c r="F4">
-        <v>19.29377643798164</v>
+        <v>18.62638683498107</v>
       </c>
       <c r="G4">
-        <v>2.088274112837809</v>
+        <v>2.18190337300113</v>
       </c>
       <c r="H4">
-        <v>1.78077987740863</v>
+        <v>1.649231161128398</v>
       </c>
       <c r="I4">
-        <v>2.568803100232825</v>
+        <v>2.524380022034761</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.82181931797968</v>
+        <v>14.20151045618086</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.55417424825312</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.53932362827722</v>
       </c>
       <c r="N4">
-        <v>7.500055100523125</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.42771651055313</v>
+        <v>7.597562870382209</v>
       </c>
       <c r="Q4">
-        <v>15.72731256389517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.35003820739012</v>
+      </c>
+      <c r="S4">
+        <v>15.12036947105056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23280852700229</v>
+        <v>17.96613106509873</v>
       </c>
       <c r="C5">
-        <v>11.94351840877493</v>
+        <v>12.26617800188936</v>
       </c>
       <c r="D5">
-        <v>4.182552678865075</v>
+        <v>4.138659502777192</v>
       </c>
       <c r="E5">
-        <v>8.294515683478023</v>
+        <v>8.348621749787201</v>
       </c>
       <c r="F5">
-        <v>19.12169637287004</v>
+        <v>18.45778208365677</v>
       </c>
       <c r="G5">
-        <v>2.089379419658492</v>
+        <v>2.325597845820886</v>
       </c>
       <c r="H5">
-        <v>1.83512763925925</v>
+        <v>1.696799230608332</v>
       </c>
       <c r="I5">
-        <v>2.615669612527836</v>
+        <v>2.491384229018469</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.81187000115286</v>
+        <v>14.19479434858433</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.5763896551356</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.51788878833597</v>
       </c>
       <c r="N5">
-        <v>7.418446852626865</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.4495685368531</v>
+        <v>7.517631407148365</v>
       </c>
       <c r="Q5">
-        <v>15.64504797661092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.36334422327335</v>
+      </c>
+      <c r="S5">
+        <v>15.03820461427875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16268423666969</v>
+        <v>17.89670409110645</v>
       </c>
       <c r="C6">
-        <v>11.92467934345602</v>
+        <v>12.24554185044749</v>
       </c>
       <c r="D6">
-        <v>4.1782177329884</v>
+        <v>4.132958914614385</v>
       </c>
       <c r="E6">
-        <v>8.285354567791744</v>
+        <v>8.341721682098138</v>
       </c>
       <c r="F6">
-        <v>19.08394233409838</v>
+        <v>18.42044267076014</v>
       </c>
       <c r="G6">
-        <v>2.089572352656116</v>
+        <v>2.350719846943785</v>
       </c>
       <c r="H6">
-        <v>1.844623091356505</v>
+        <v>1.705127800239493</v>
       </c>
       <c r="I6">
-        <v>2.62758795785941</v>
+        <v>2.487398789684085</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.80363080789736</v>
+        <v>14.18718668805895</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.57435291581312</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.510531338203529</v>
       </c>
       <c r="N6">
-        <v>7.405336074761185</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.45416142113292</v>
+        <v>7.504809848484253</v>
       </c>
       <c r="Q6">
-        <v>15.6243193951366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.36665111863953</v>
+      </c>
+      <c r="S6">
+        <v>15.01736265470652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58753542765994</v>
+        <v>18.29600162024438</v>
       </c>
       <c r="C7">
-        <v>12.12174321494614</v>
+        <v>12.4310694362082</v>
       </c>
       <c r="D7">
-        <v>4.219547859250829</v>
+        <v>4.192270994277454</v>
       </c>
       <c r="E7">
-        <v>8.3324246825947</v>
+        <v>8.377112466107734</v>
       </c>
       <c r="F7">
-        <v>19.26667280967117</v>
+        <v>18.54766993488701</v>
       </c>
       <c r="G7">
-        <v>2.08831044344391</v>
+        <v>2.265217830640418</v>
       </c>
       <c r="H7">
-        <v>1.782580413887281</v>
+        <v>1.652281740677121</v>
       </c>
       <c r="I7">
-        <v>2.580226419481654</v>
+        <v>2.526193402662496</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.80354040081081</v>
+        <v>14.16267782674041</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.52109173849297</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.513673033408606</v>
       </c>
       <c r="N7">
-        <v>7.500395649457357</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.43061344413165</v>
+        <v>7.595085617242415</v>
       </c>
       <c r="Q7">
-        <v>15.70686040318567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.3567960915238</v>
+      </c>
+      <c r="S7">
+        <v>15.05978845931643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.3661365220782</v>
+        <v>20.0069483096553</v>
       </c>
       <c r="C8">
-        <v>12.93815363683861</v>
+        <v>13.25449545761533</v>
       </c>
       <c r="D8">
-        <v>4.392881439985306</v>
+        <v>4.425452007047872</v>
       </c>
       <c r="E8">
-        <v>8.537836170496156</v>
+        <v>8.527192059659036</v>
       </c>
       <c r="F8">
-        <v>20.09437236993041</v>
+        <v>19.2365689670863</v>
       </c>
       <c r="G8">
-        <v>2.082920880858139</v>
+        <v>2.078521243415457</v>
       </c>
       <c r="H8">
-        <v>1.602072619222246</v>
+        <v>1.693739671940959</v>
       </c>
       <c r="I8">
-        <v>2.585335388230956</v>
+        <v>2.691825755054024</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.8300827376482</v>
+        <v>14.12129327250253</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.34425750906639</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.607122255151495</v>
       </c>
       <c r="N8">
-        <v>7.904842873111746</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.32976465432397</v>
+        <v>7.98589180826301</v>
       </c>
       <c r="Q8">
-        <v>16.09781698349539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.31030035008248</v>
+      </c>
+      <c r="S8">
+        <v>15.35377521997187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.54838231015132</v>
+        <v>23.04789967288766</v>
       </c>
       <c r="C9">
-        <v>14.38201421221713</v>
+        <v>14.80120519373467</v>
       </c>
       <c r="D9">
-        <v>4.705223387643176</v>
+        <v>4.817055515819712</v>
       </c>
       <c r="E9">
-        <v>8.92319861347309</v>
+        <v>8.801166851286599</v>
       </c>
       <c r="F9">
-        <v>21.73514895356382</v>
+        <v>20.76605189244423</v>
       </c>
       <c r="G9">
-        <v>2.073009867080597</v>
+        <v>2.291154833108808</v>
       </c>
       <c r="H9">
-        <v>2.075102968541701</v>
+        <v>2.105512239401639</v>
       </c>
       <c r="I9">
-        <v>2.960773298076095</v>
+        <v>2.999762086336328</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.95098388414649</v>
+        <v>14.16558704005663</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.08925932868127</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.016537879160573</v>
       </c>
       <c r="N9">
-        <v>8.641858624020205</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.14728487513156</v>
+        <v>8.709877573840693</v>
       </c>
       <c r="Q9">
-        <v>16.92262555168029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.22251147889246</v>
+      </c>
+      <c r="S9">
+        <v>16.10873747253839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.56030516357702</v>
+        <v>24.87459906638503</v>
       </c>
       <c r="C10">
-        <v>15.42777022825497</v>
+        <v>15.78364461639716</v>
       </c>
       <c r="D10">
-        <v>4.939884229237081</v>
+        <v>5.146699669547675</v>
       </c>
       <c r="E10">
-        <v>9.086606723686053</v>
+        <v>8.910119386169571</v>
       </c>
       <c r="F10">
-        <v>22.79719153196914</v>
+        <v>21.48543379861206</v>
       </c>
       <c r="G10">
-        <v>2.066250460543174</v>
+        <v>4.273845905434626</v>
       </c>
       <c r="H10">
-        <v>2.391208935730829</v>
+        <v>2.372692468292257</v>
       </c>
       <c r="I10">
-        <v>3.219604670382079</v>
+        <v>3.206211017575989</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.97745993409807</v>
+        <v>14.0204678028947</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.77291921013614</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.236541392990071</v>
       </c>
       <c r="N10">
-        <v>9.01277662048498</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.04491476352194</v>
+        <v>9.058613104607257</v>
       </c>
       <c r="Q10">
-        <v>17.44389493204963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.2213765372149</v>
+      </c>
+      <c r="S10">
+        <v>16.36369998206473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.87606883131333</v>
+        <v>25.00349666805139</v>
       </c>
       <c r="C11">
-        <v>16.37835060794676</v>
+        <v>16.43865611161331</v>
       </c>
       <c r="D11">
-        <v>5.203927356356808</v>
+        <v>5.525279478767219</v>
       </c>
       <c r="E11">
-        <v>8.464647718811248</v>
+        <v>8.326154638975595</v>
       </c>
       <c r="F11">
-        <v>22.31941874355747</v>
+        <v>20.49653964508116</v>
       </c>
       <c r="G11">
-        <v>2.064209579965107</v>
+        <v>7.994325205788579</v>
       </c>
       <c r="H11">
-        <v>3.164070993619144</v>
+        <v>3.131697351268384</v>
       </c>
       <c r="I11">
-        <v>3.29243152741261</v>
+        <v>3.255121326918462</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.29578407800321</v>
+        <v>13.18092685914922</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.12437993012627</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.661738267462088</v>
       </c>
       <c r="N11">
-        <v>8.037937308891077</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.16962037143438</v>
+        <v>8.046623516873188</v>
       </c>
       <c r="Q11">
-        <v>16.89875124397454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.46244475346454</v>
+      </c>
+      <c r="S11">
+        <v>15.41702032319199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.7516869823406</v>
+        <v>24.81594086511459</v>
       </c>
       <c r="C12">
-        <v>16.95036947709065</v>
+        <v>16.84452923207686</v>
       </c>
       <c r="D12">
-        <v>5.379463791349577</v>
+        <v>5.752998592540945</v>
       </c>
       <c r="E12">
-        <v>8.199541397719141</v>
+        <v>8.073764119816545</v>
       </c>
       <c r="F12">
-        <v>21.71120452624818</v>
+        <v>19.68663869198298</v>
       </c>
       <c r="G12">
-        <v>2.063780260909691</v>
+        <v>9.8278074578441</v>
       </c>
       <c r="H12">
-        <v>4.345596337798291</v>
+        <v>4.31873913384838</v>
       </c>
       <c r="I12">
-        <v>3.300171735477392</v>
+        <v>3.255605775066707</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.74293534920613</v>
+        <v>12.61657449613508</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.73553934433272</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.208510779536828</v>
       </c>
       <c r="N12">
-        <v>7.169670407566192</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.30900131011392</v>
+        <v>7.160508436945298</v>
       </c>
       <c r="Q12">
-        <v>16.34254321187584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.66202416080863</v>
+      </c>
+      <c r="S12">
+        <v>14.71154263897336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.25722160279076</v>
+        <v>24.38826028437745</v>
       </c>
       <c r="C13">
-        <v>17.30570825523985</v>
+        <v>17.17953703512668</v>
       </c>
       <c r="D13">
-        <v>5.504468509894277</v>
+        <v>5.861502495356144</v>
       </c>
       <c r="E13">
-        <v>8.203923435499465</v>
+        <v>8.092581702407466</v>
       </c>
       <c r="F13">
-        <v>20.91562960026502</v>
+        <v>19.02421701115554</v>
       </c>
       <c r="G13">
-        <v>2.064595769399494</v>
+        <v>9.392841668242809</v>
       </c>
       <c r="H13">
-        <v>5.623237407123888</v>
+        <v>5.60621372860853</v>
       </c>
       <c r="I13">
-        <v>3.261706930175889</v>
+        <v>3.225499746772263</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.22974664831719</v>
+        <v>12.23517716627744</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.50419183399666</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.840509425094236</v>
       </c>
       <c r="N13">
-        <v>6.335370555609833</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.46686747173012</v>
+        <v>6.326821267544408</v>
       </c>
       <c r="Q13">
-        <v>15.70719239338323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.81466108728184</v>
+      </c>
+      <c r="S13">
+        <v>14.19673286815907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.73229948240497</v>
+        <v>23.96817801781986</v>
       </c>
       <c r="C14">
-        <v>17.46675301226363</v>
+        <v>17.39166528334672</v>
       </c>
       <c r="D14">
-        <v>5.571397878401603</v>
+        <v>5.885049641557893</v>
       </c>
       <c r="E14">
-        <v>8.368351712390108</v>
+        <v>8.279746584476559</v>
       </c>
       <c r="F14">
-        <v>20.25986757084044</v>
+        <v>18.608443418553</v>
       </c>
       <c r="G14">
-        <v>2.065730288650453</v>
+        <v>8.083003400181791</v>
       </c>
       <c r="H14">
-        <v>6.550151406169402</v>
+        <v>6.539903093578818</v>
       </c>
       <c r="I14">
-        <v>3.215026435137337</v>
+        <v>3.191826667581593</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.88910770748629</v>
+        <v>12.03983821585592</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.40004026745737</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.61715247674339</v>
       </c>
       <c r="N14">
-        <v>5.786714276981141</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.5868086176234</v>
+        <v>5.78612598186704</v>
       </c>
       <c r="Q14">
-        <v>15.21873121203584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.8988652225932</v>
+      </c>
+      <c r="S14">
+        <v>13.9077842199997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.51772525296119</v>
+        <v>23.80435373603555</v>
       </c>
       <c r="C15">
-        <v>17.46652405899247</v>
+        <v>17.43261743801803</v>
       </c>
       <c r="D15">
-        <v>5.577766458799176</v>
+        <v>5.867207732136571</v>
       </c>
       <c r="E15">
-        <v>8.423297714064088</v>
+        <v>8.347519652494594</v>
       </c>
       <c r="F15">
-        <v>20.05221103539051</v>
+        <v>18.52177262867847</v>
       </c>
       <c r="G15">
-        <v>2.066292272499911</v>
+        <v>7.335945906599349</v>
       </c>
       <c r="H15">
-        <v>6.761294816446109</v>
+        <v>6.753409057175215</v>
       </c>
       <c r="I15">
-        <v>3.194520430852108</v>
+        <v>3.178238291845047</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.80985866934289</v>
+        <v>12.01768822292019</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.39555172902752</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.573162063128404</v>
       </c>
       <c r="N15">
-        <v>5.657171344944654</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.61895947224062</v>
+        <v>5.661573050084087</v>
       </c>
       <c r="Q15">
-        <v>15.07769660778424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.90894420076527</v>
+      </c>
+      <c r="S15">
+        <v>13.86385190919519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.74817930950015</v>
+        <v>23.24621061433053</v>
       </c>
       <c r="C16">
-        <v>16.99886981901636</v>
+        <v>17.20200285597581</v>
       </c>
       <c r="D16">
-        <v>5.460891186345358</v>
+        <v>5.637056582981899</v>
       </c>
       <c r="E16">
-        <v>8.338347617039927</v>
+        <v>8.319430257747319</v>
       </c>
       <c r="F16">
-        <v>19.70438060918754</v>
+        <v>18.68881684290017</v>
       </c>
       <c r="G16">
-        <v>2.069015144048571</v>
+        <v>3.913524430552168</v>
       </c>
       <c r="H16">
-        <v>6.492634932369421</v>
+        <v>6.493879528960472</v>
       </c>
       <c r="I16">
-        <v>3.093591690583622</v>
+        <v>3.107865433991794</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.89498152746282</v>
+        <v>12.28210654748413</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.6161349347886</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.691766784177191</v>
       </c>
       <c r="N16">
-        <v>5.636192432571924</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.61749111889415</v>
+        <v>5.667250786368275</v>
       </c>
       <c r="Q16">
-        <v>14.95048394489243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.79781191671522</v>
+      </c>
+      <c r="S16">
+        <v>14.13497111170765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.43819231843855</v>
+        <v>23.01738626406233</v>
       </c>
       <c r="C17">
-        <v>16.54345386997511</v>
+        <v>16.86474559226051</v>
       </c>
       <c r="D17">
-        <v>5.333076264971804</v>
+        <v>5.460525164361886</v>
       </c>
       <c r="E17">
-        <v>8.157505116760893</v>
+        <v>8.153161567221799</v>
       </c>
       <c r="F17">
-        <v>19.79814083178658</v>
+        <v>18.98127926617953</v>
       </c>
       <c r="G17">
-        <v>2.070510442675121</v>
+        <v>2.64744855668925</v>
       </c>
       <c r="H17">
-        <v>5.745446809662422</v>
+        <v>5.751722937566563</v>
       </c>
       <c r="I17">
-        <v>3.04099960367104</v>
+        <v>3.070550974288113</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.13811448198802</v>
+        <v>12.5729283378455</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.84298993475779</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.878218147039783</v>
       </c>
       <c r="N17">
-        <v>5.905394541817209</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.55450875248541</v>
+        <v>5.951302995153812</v>
       </c>
       <c r="Q17">
-        <v>15.11859164182169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.68574662588219</v>
+      </c>
+      <c r="S17">
+        <v>14.45178823929077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.51351555903253</v>
+        <v>23.1034935813363</v>
       </c>
       <c r="C18">
-        <v>16.03856973770212</v>
+        <v>16.43451402530279</v>
       </c>
       <c r="D18">
-        <v>5.181233478612906</v>
+        <v>5.291540674173728</v>
       </c>
       <c r="E18">
-        <v>8.026859195523455</v>
+        <v>8.000746082016949</v>
       </c>
       <c r="F18">
-        <v>20.2961759069518</v>
+        <v>19.52533082956108</v>
       </c>
       <c r="G18">
-        <v>2.071047136031439</v>
+        <v>2.264872090554156</v>
       </c>
       <c r="H18">
-        <v>4.540610019729831</v>
+        <v>4.550675778184616</v>
       </c>
       <c r="I18">
-        <v>3.022850367287131</v>
+        <v>3.056629892326789</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.56279983832026</v>
+        <v>12.97498831340067</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.13864610141637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.187109470063916</v>
       </c>
       <c r="N18">
-        <v>6.507591866791206</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.43434715606308</v>
+        <v>6.563564974657704</v>
       </c>
       <c r="Q18">
-        <v>15.56962713929893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.54458251122894</v>
+      </c>
+      <c r="S18">
+        <v>14.93247539948614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.86581729668498</v>
+        <v>23.42434129448755</v>
       </c>
       <c r="C19">
-        <v>15.5788722708625</v>
+        <v>16.02842014140317</v>
       </c>
       <c r="D19">
-        <v>5.033021716308006</v>
+        <v>5.144465191782733</v>
       </c>
       <c r="E19">
-        <v>8.180817286293351</v>
+        <v>8.10452285491982</v>
       </c>
       <c r="F19">
-        <v>21.03083940319758</v>
+        <v>20.22157390755</v>
       </c>
       <c r="G19">
-        <v>2.070741819198725</v>
+        <v>2.238001257360612</v>
       </c>
       <c r="H19">
-        <v>3.210528466325105</v>
+        <v>3.223759299147934</v>
       </c>
       <c r="I19">
-        <v>3.044377629478206</v>
+        <v>3.07604674514298</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.08502718815462</v>
+        <v>13.43441420337314</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.46551520595361</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.56707953420986</v>
       </c>
       <c r="N19">
-        <v>7.387555846160478</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.29522010448372</v>
+        <v>7.450169399325887</v>
       </c>
       <c r="Q19">
-        <v>16.17718269887224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.40018124205983</v>
+      </c>
+      <c r="S19">
+        <v>15.50459866501131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.00344263513583</v>
+        <v>24.42391847365885</v>
       </c>
       <c r="C20">
-        <v>15.21639745487813</v>
+        <v>15.67038850925702</v>
       </c>
       <c r="D20">
-        <v>4.890487275050799</v>
+        <v>5.046705474472637</v>
       </c>
       <c r="E20">
-        <v>9.026000742947145</v>
+        <v>8.855492278716447</v>
       </c>
       <c r="F20">
-        <v>22.44855127666817</v>
+        <v>21.38564620361315</v>
       </c>
       <c r="G20">
-        <v>2.06806140593495</v>
+        <v>2.96583827106633</v>
       </c>
       <c r="H20">
-        <v>2.304970092740366</v>
+        <v>2.303614559776156</v>
       </c>
       <c r="I20">
-        <v>3.160900929749776</v>
+        <v>3.16888434843067</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.91055921605092</v>
+        <v>14.07377035613406</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.86557532264444</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.188772370016855</v>
       </c>
       <c r="N20">
-        <v>8.91492131151886</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.08204920732079</v>
+        <v>8.974960242287827</v>
       </c>
       <c r="Q20">
-        <v>17.24761519081721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.21554323950748</v>
+      </c>
+      <c r="S20">
+        <v>16.3675368410205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.57337098315143</v>
+        <v>25.55221490915562</v>
       </c>
       <c r="C21">
-        <v>15.89654355030725</v>
+        <v>15.90635538170262</v>
       </c>
       <c r="D21">
-        <v>5.036311159527403</v>
+        <v>5.40403481999405</v>
       </c>
       <c r="E21">
-        <v>9.307286625280508</v>
+        <v>9.143470144780091</v>
       </c>
       <c r="F21">
-        <v>23.43501225798006</v>
+        <v>21.27848184171805</v>
       </c>
       <c r="G21">
-        <v>2.062800939592658</v>
+        <v>9.637895514001871</v>
       </c>
       <c r="H21">
-        <v>2.560153346374022</v>
+        <v>2.500235248045068</v>
       </c>
       <c r="I21">
-        <v>3.362574578639409</v>
+        <v>3.308546152539996</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.07227019558794</v>
+        <v>13.71189905594474</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.46326107687095</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.151494936817556</v>
       </c>
       <c r="N21">
-        <v>9.396843748050967</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.98052201702287</v>
+        <v>9.398025452752981</v>
       </c>
       <c r="Q21">
-        <v>17.79887241335377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.29129363863911</v>
+      </c>
+      <c r="S21">
+        <v>16.03116892104255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53735926934741</v>
+        <v>26.22278438790048</v>
       </c>
       <c r="C22">
-        <v>16.33307846750817</v>
+        <v>16.0385135500162</v>
       </c>
       <c r="D22">
-        <v>5.133731423369755</v>
+        <v>5.648943602808885</v>
       </c>
       <c r="E22">
-        <v>9.441795672417671</v>
+        <v>9.298405368991714</v>
       </c>
       <c r="F22">
-        <v>24.04333550854563</v>
+        <v>21.13151019185599</v>
       </c>
       <c r="G22">
-        <v>2.059464362719477</v>
+        <v>14.65422684699257</v>
       </c>
       <c r="H22">
-        <v>2.718229165331976</v>
+        <v>2.621716745328557</v>
       </c>
       <c r="I22">
-        <v>3.486161586320143</v>
+        <v>3.391937418836762</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.16574255672418</v>
+        <v>13.43768006519738</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.18832795465858</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.094843115042931</v>
       </c>
       <c r="N22">
-        <v>9.633317554814735</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.92063226831675</v>
+        <v>9.594396694182853</v>
       </c>
       <c r="Q22">
-        <v>18.13702892013635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.36420519515979</v>
+      </c>
+      <c r="S22">
+        <v>15.7487006785335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.04217029669827</v>
+        <v>25.92334764308414</v>
       </c>
       <c r="C23">
-        <v>16.08161155269437</v>
+        <v>16.0016462397185</v>
       </c>
       <c r="D23">
-        <v>5.07817382285375</v>
+        <v>5.49459162046603</v>
       </c>
       <c r="E23">
-        <v>9.375411700481189</v>
+        <v>9.211085533668525</v>
       </c>
       <c r="F23">
-        <v>23.74346353296724</v>
+        <v>21.34637933132167</v>
       </c>
       <c r="G23">
-        <v>2.061218881902064</v>
+        <v>11.18650550274632</v>
       </c>
       <c r="H23">
-        <v>2.635135078941125</v>
+        <v>2.560220679561029</v>
       </c>
       <c r="I23">
-        <v>3.417146686452839</v>
+        <v>3.345159546105556</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.13595156382637</v>
+        <v>13.653327818417</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.37819579976103</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.186602135831844</v>
       </c>
       <c r="N23">
-        <v>9.506334429190433</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.94814303922125</v>
+        <v>9.494538357039689</v>
       </c>
       <c r="Q23">
-        <v>17.97648790583641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.30417969127421</v>
+      </c>
+      <c r="S23">
+        <v>16.01103970133203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.0511470485412</v>
+        <v>24.47105922138989</v>
       </c>
       <c r="C24">
-        <v>15.13019749503273</v>
+        <v>15.59040222282047</v>
       </c>
       <c r="D24">
-        <v>4.868074876043209</v>
+        <v>5.02252620667019</v>
       </c>
       <c r="E24">
-        <v>9.110409732051245</v>
+        <v>8.934149562539689</v>
       </c>
       <c r="F24">
-        <v>22.55638629624228</v>
+        <v>21.49619525250322</v>
       </c>
       <c r="G24">
-        <v>2.068024237962403</v>
+        <v>2.933044231814158</v>
       </c>
       <c r="H24">
-        <v>2.312247047869115</v>
+        <v>2.310801928067546</v>
       </c>
       <c r="I24">
-        <v>3.156334836405381</v>
+        <v>3.162184074620252</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.00172524870299</v>
+        <v>14.15937562700265</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.9276904324829</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.257146942348088</v>
       </c>
       <c r="N24">
-        <v>9.013069470236065</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.06444811719161</v>
+        <v>9.074092470795602</v>
       </c>
       <c r="Q24">
-        <v>17.3400428320358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.19451085657997</v>
+      </c>
+      <c r="S24">
+        <v>16.46134753748576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.70592135131547</v>
+        <v>22.26846045963166</v>
       </c>
       <c r="C25">
-        <v>14.03856490238769</v>
+        <v>14.46595331939346</v>
       </c>
       <c r="D25">
-        <v>4.629296633472634</v>
+        <v>4.710097252207877</v>
       </c>
       <c r="E25">
-        <v>8.813296715493289</v>
+        <v>8.717289731402317</v>
       </c>
       <c r="F25">
-        <v>21.25448296123074</v>
+        <v>20.38475677285753</v>
       </c>
       <c r="G25">
-        <v>2.075653665915353</v>
+        <v>1.721821986601425</v>
       </c>
       <c r="H25">
-        <v>1.949120481440634</v>
+        <v>1.997697903224962</v>
       </c>
       <c r="I25">
-        <v>2.866093386871345</v>
+        <v>2.926464265017874</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.88190560685637</v>
+        <v>14.14958463145817</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.15682198206657</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.888726430654245</v>
       </c>
       <c r="N25">
-        <v>8.45098844389816</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.20007613076436</v>
+        <v>8.525852634181881</v>
       </c>
       <c r="Q25">
-        <v>16.66440226137886</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.24402049606619</v>
+      </c>
+      <c r="S25">
+        <v>15.92553310898593</v>
       </c>
     </row>
   </sheetData>
